--- a/xlsx/CNET_intext.xlsx
+++ b/xlsx/CNET_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_CNET</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_CNET</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%97%A9%E5%B8%82</t>
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E7%AF%80%E7%9B%AE</t>
   </si>
   <si>
-    <t>電視節目</t>
+    <t>电视节目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>有線電視</t>
+    <t>有线电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>互聯網</t>
+    <t>互联网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>新聞</t>
+    <t>新闻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/News.com</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6</t>
   </si>
   <si>
-    <t>軟件</t>
+    <t>软件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%BC%89</t>
   </si>
   <si>
-    <t>下載</t>
+    <t>下载</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Download.com</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>哥倫比亞廣播公司</t>
+    <t>哥伦比亚广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%A7%91%E6%BC%A2</t>
   </si>
   <si>
-    <t>威廉·科漢</t>
+    <t>威廉·科汉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Charles_K._Gifford</t>
@@ -899,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD%E7%B6%B2</t>
   </si>
   <si>
-    <t>廣播網</t>
+    <t>广播网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boston_Bruins_Radio_Network</t>
@@ -959,13 +959,13 @@
     <t>https://zh.wikipedia.org/wiki/CBS_(%E9%9B%BB%E8%A6%96%E7%B6%B2)</t>
   </si>
   <si>
-    <t>CBS (電視網)</t>
+    <t>CBS (电视网)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CW%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>CW電視網</t>
+    <t>CW电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%BA%B3%E5%85%84%E5%BC%9F%E5%85%AC%E5%8F%B8</t>
@@ -1007,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E9%9B%BB%E8%A6%96%E5%9F%8E</t>
   </si>
   <si>
-    <t>CBS電視城</t>
+    <t>CBS电视城</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ed_Sullivan_Theater</t>
@@ -1229,13 +1229,13 @@
     <t>https://zh.wikipedia.org/wiki/Showtime%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>Showtime電視網</t>
+    <t>Showtime电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CBS%E9%AB%94%E8%82%B2%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>CBS體育電視網</t>
+    <t>CBS体育电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pop_(U.S._TV_network)</t>
@@ -1313,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E4%BA%92%E5%8B%95</t>
   </si>
   <si>
-    <t>CBS互動</t>
+    <t>CBS互动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dan_Ackerman</t>
@@ -1469,7 +1469,7 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>CBS新聞</t>
+    <t>CBS新闻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CBS_MoneyWatch</t>
@@ -1649,7 +1649,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%E8%88%87%E8%88%92%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>西蒙與舒斯特</t>
+    <t>西蒙与舒斯特</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Howard_Books</t>
@@ -1733,13 +1733,13 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>CBS新聞台</t>
+    <t>CBS新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CBS%E9%AB%94%E8%82%B2%E5%8F%B0</t>
   </si>
   <si>
-    <t>CBS體育台</t>
+    <t>CBS体育台</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CBS_Cable</t>
@@ -1799,7 +1799,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%8E%E5%A8%9B%E6%A8%82%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>全美娛樂公司</t>
+    <t>全美娱乐公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%8B%E5%85%AC%E5%8F%B8</t>
@@ -1817,7 +1817,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1835,7 +1835,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
 </sst>
 </file>
